--- a/Data/Salida/FRAME_RESULTADO.xlsx
+++ b/Data/Salida/FRAME_RESULTADO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,11 @@
           <t>FECHA DE STATUS</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>validacion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -562,6 +567,9 @@
       <c r="M2" s="2" t="n">
         <v>45658</v>
       </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -621,6 +629,9 @@
       <c r="M3" s="2" t="n">
         <v>45663</v>
       </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -680,6 +691,9 @@
       <c r="M4" s="2" t="n">
         <v>45603</v>
       </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -741,6 +755,9 @@
       <c r="M5" s="2" t="n">
         <v>45409</v>
       </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -800,6 +817,9 @@
       <c r="M6" s="2" t="n">
         <v>45488</v>
       </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -859,6 +879,9 @@
       <c r="M7" s="2" t="n">
         <v>45478</v>
       </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -918,6 +941,9 @@
       <c r="M8" s="2" t="n">
         <v>45393</v>
       </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -977,6 +1003,9 @@
       <c r="M9" s="2" t="n">
         <v>45637</v>
       </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1036,6 +1065,9 @@
       <c r="M10" s="2" t="n">
         <v>45570</v>
       </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1095,6 +1127,9 @@
       <c r="M11" s="2" t="n">
         <v>45667</v>
       </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1154,6 +1189,9 @@
       <c r="M12" s="2" t="n">
         <v>45612</v>
       </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1213,6 +1251,9 @@
       <c r="M13" s="2" t="n">
         <v>45623</v>
       </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1272,6 +1313,9 @@
       <c r="M14" s="2" t="n">
         <v>45421</v>
       </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1333,6 +1377,9 @@
       <c r="M15" s="2" t="n">
         <v>45407</v>
       </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1392,6 +1439,9 @@
       <c r="M16" s="2" t="n">
         <v>45605</v>
       </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1451,6 +1501,9 @@
       <c r="M17" s="2" t="n">
         <v>45509</v>
       </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1512,6 +1565,9 @@
       <c r="M18" s="2" t="n">
         <v>45471</v>
       </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1571,6 +1627,9 @@
       <c r="M19" s="2" t="n">
         <v>45596</v>
       </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1630,6 +1689,9 @@
       <c r="M20" s="2" t="n">
         <v>45611</v>
       </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1689,6 +1751,9 @@
       <c r="M21" s="2" t="n">
         <v>45639</v>
       </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1748,6 +1813,9 @@
       <c r="M22" s="2" t="n">
         <v>45547</v>
       </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1807,6 +1875,9 @@
       <c r="M23" s="2" t="n">
         <v>45478</v>
       </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1866,6 +1937,9 @@
       <c r="M24" s="2" t="n">
         <v>45504</v>
       </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1925,6 +1999,9 @@
       <c r="M25" s="2" t="n">
         <v>45626</v>
       </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1984,6 +2061,9 @@
       <c r="M26" s="2" t="n">
         <v>45484</v>
       </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2043,6 +2123,9 @@
       <c r="M27" s="2" t="n">
         <v>45442</v>
       </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2102,6 +2185,9 @@
       <c r="M28" s="2" t="n">
         <v>45483</v>
       </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2161,6 +2247,9 @@
       <c r="M29" s="2" t="n">
         <v>45611</v>
       </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2220,6 +2309,9 @@
       <c r="M30" s="2" t="n">
         <v>45575</v>
       </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2281,6 +2373,9 @@
       <c r="M31" s="2" t="n">
         <v>45440</v>
       </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2340,6 +2435,9 @@
       <c r="M32" s="2" t="n">
         <v>45439</v>
       </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2399,6 +2497,9 @@
       <c r="M33" s="2" t="n">
         <v>45423</v>
       </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2458,6 +2559,9 @@
       <c r="M34" s="2" t="n">
         <v>45574</v>
       </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2517,6 +2621,9 @@
       <c r="M35" s="2" t="n">
         <v>45412</v>
       </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2576,6 +2683,9 @@
       <c r="M36" s="2" t="n">
         <v>45717</v>
       </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2635,6 +2745,9 @@
       <c r="M37" s="2" t="n">
         <v>45632</v>
       </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2694,6 +2807,9 @@
       <c r="M38" s="2" t="n">
         <v>45691</v>
       </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2753,6 +2869,9 @@
       <c r="M39" s="2" t="n">
         <v>45506</v>
       </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2812,6 +2931,9 @@
       <c r="M40" s="2" t="n">
         <v>45611</v>
       </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2871,6 +2993,9 @@
       <c r="M41" s="2" t="n">
         <v>45403</v>
       </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2930,6 +3055,9 @@
       <c r="M42" s="2" t="n">
         <v>45689</v>
       </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2989,6 +3117,9 @@
       <c r="M43" s="2" t="n">
         <v>45700</v>
       </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3048,6 +3179,9 @@
       <c r="M44" s="2" t="n">
         <v>45656</v>
       </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3107,6 +3241,9 @@
       <c r="M45" s="2" t="n">
         <v>45509</v>
       </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3168,6 +3305,9 @@
       <c r="M46" s="2" t="n">
         <v>45692</v>
       </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3227,6 +3367,9 @@
       <c r="M47" s="2" t="n">
         <v>45706</v>
       </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3286,6 +3429,9 @@
       <c r="M48" s="2" t="n">
         <v>45596</v>
       </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3345,6 +3491,9 @@
       <c r="M49" s="2" t="n">
         <v>45608</v>
       </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3406,6 +3555,9 @@
       <c r="M50" s="2" t="n">
         <v>45692</v>
       </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3465,6 +3617,9 @@
       <c r="M51" s="2" t="n">
         <v>45595</v>
       </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3524,6 +3679,9 @@
       <c r="M52" s="2" t="n">
         <v>45601</v>
       </c>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3583,6 +3741,9 @@
       <c r="M53" s="2" t="n">
         <v>45603</v>
       </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3642,6 +3803,9 @@
       <c r="M54" s="2" t="n">
         <v>45599</v>
       </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3705,6 +3869,9 @@
       <c r="M55" s="2" t="n">
         <v>45608</v>
       </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3764,6 +3931,9 @@
       <c r="M56" s="2" t="n">
         <v>45674</v>
       </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3823,6 +3993,9 @@
       <c r="M57" s="2" t="n">
         <v>45728</v>
       </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3882,6 +4055,9 @@
       <c r="M58" s="2" t="n">
         <v>45662</v>
       </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3941,6 +4117,9 @@
       <c r="M59" s="2" t="n">
         <v>45611</v>
       </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4002,6 +4181,9 @@
       <c r="M60" s="2" t="n">
         <v>45467</v>
       </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4061,6 +4243,9 @@
       <c r="M61" s="2" t="n">
         <v>45627</v>
       </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4120,6 +4305,9 @@
       <c r="M62" s="2" t="n">
         <v>45627</v>
       </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4179,6 +4367,9 @@
       <c r="M63" s="2" t="n">
         <v>45649</v>
       </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4238,6 +4429,9 @@
       <c r="M64" s="2" t="n">
         <v>45637</v>
       </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4297,6 +4491,9 @@
       <c r="M65" s="2" t="n">
         <v>45631</v>
       </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4358,6 +4555,9 @@
       <c r="M66" s="2" t="n">
         <v>45640</v>
       </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4419,6 +4619,9 @@
       <c r="M67" s="2" t="n">
         <v>45553</v>
       </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4478,6 +4681,9 @@
       <c r="M68" s="2" t="n">
         <v>45631</v>
       </c>
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4537,6 +4743,9 @@
       <c r="M69" s="2" t="n">
         <v>45656</v>
       </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4596,6 +4805,9 @@
       <c r="M70" s="2" t="n">
         <v>45513</v>
       </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4655,6 +4867,9 @@
       <c r="M71" s="2" t="n">
         <v>45464</v>
       </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4714,6 +4929,9 @@
       <c r="M72" s="2" t="n">
         <v>45640</v>
       </c>
+      <c r="N72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4773,6 +4991,9 @@
       <c r="M73" s="2" t="n">
         <v>45568</v>
       </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4832,6 +5053,9 @@
       <c r="M74" s="2" t="n">
         <v>45638</v>
       </c>
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4891,6 +5115,9 @@
       <c r="M75" s="2" t="n">
         <v>45636</v>
       </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4950,6 +5177,9 @@
       <c r="M76" s="2" t="n">
         <v>45603</v>
       </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5009,6 +5239,9 @@
       <c r="M77" s="2" t="n">
         <v>45629</v>
       </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5068,6 +5301,9 @@
       <c r="M78" s="2" t="n">
         <v>45605</v>
       </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5127,6 +5363,9 @@
       <c r="M79" s="2" t="n">
         <v>45596</v>
       </c>
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5186,6 +5425,9 @@
       <c r="M80" s="2" t="n">
         <v>45600</v>
       </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5245,6 +5487,9 @@
       <c r="M81" s="2" t="n">
         <v>45567</v>
       </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5304,6 +5549,9 @@
       <c r="M82" s="2" t="n">
         <v>45588</v>
       </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5363,6 +5611,9 @@
       <c r="M83" s="2" t="n">
         <v>45583</v>
       </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5422,6 +5673,9 @@
       <c r="M84" s="2" t="n">
         <v>45598</v>
       </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5481,6 +5735,9 @@
       <c r="M85" s="2" t="n">
         <v>45587</v>
       </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5542,6 +5799,9 @@
       <c r="M86" s="2" t="n">
         <v>45573</v>
       </c>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5601,6 +5861,9 @@
       <c r="M87" s="2" t="n">
         <v>45566</v>
       </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5660,6 +5923,9 @@
       <c r="M88" s="2" t="n">
         <v>45568</v>
       </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5719,6 +5985,9 @@
       <c r="M89" s="2" t="n">
         <v>45567</v>
       </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5778,6 +6047,9 @@
       <c r="M90" s="2" t="n">
         <v>45575</v>
       </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5837,6 +6109,9 @@
       <c r="M91" s="2" t="n">
         <v>45670</v>
       </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5898,6 +6173,9 @@
       <c r="M92" s="2" t="n">
         <v>45399</v>
       </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5957,6 +6235,9 @@
       <c r="M93" s="2" t="n">
         <v>45507</v>
       </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6016,6 +6297,9 @@
       <c r="M94" s="2" t="n">
         <v>45486</v>
       </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6077,6 +6361,9 @@
       <c r="M95" s="2" t="n">
         <v>45719</v>
       </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6138,6 +6425,9 @@
       <c r="M96" s="2" t="n">
         <v>45747</v>
       </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6197,6 +6487,9 @@
       <c r="M97" s="2" t="n">
         <v>45624</v>
       </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6256,6 +6549,9 @@
       <c r="M98" s="2" t="n">
         <v>45668</v>
       </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6315,6 +6611,9 @@
       <c r="M99" s="2" t="n">
         <v>45478</v>
       </c>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6374,6 +6673,9 @@
       <c r="M100" s="2" t="n">
         <v>45570</v>
       </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6435,6 +6737,9 @@
       <c r="M101" s="2" t="n">
         <v>45556</v>
       </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6496,6 +6801,9 @@
       <c r="M102" s="2" t="n">
         <v>45707</v>
       </c>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6555,6 +6863,9 @@
       <c r="M103" s="2" t="n">
         <v>44994</v>
       </c>
+      <c r="N103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6614,6 +6925,9 @@
       <c r="M104" s="2" t="n">
         <v>45165</v>
       </c>
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6673,6 +6987,9 @@
       <c r="M105" s="2" t="n">
         <v>45281</v>
       </c>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6732,6 +7049,9 @@
       <c r="M106" s="2" t="n">
         <v>45469</v>
       </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6791,6 +7111,9 @@
       <c r="M107" s="2" t="n">
         <v>45701</v>
       </c>
+      <c r="N107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6850,6 +7173,9 @@
       <c r="M108" s="2" t="n">
         <v>45301</v>
       </c>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6909,6 +7235,9 @@
       <c r="M109" s="2" t="n">
         <v>45703</v>
       </c>
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6968,6 +7297,9 @@
       <c r="M110" s="2" t="n">
         <v>45710</v>
       </c>
+      <c r="N110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7027,6 +7359,9 @@
       <c r="M111" s="2" t="n">
         <v>45138</v>
       </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7086,6 +7421,9 @@
       <c r="M112" s="2" t="n">
         <v>45500</v>
       </c>
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7145,6 +7483,9 @@
       <c r="M113" s="2" t="n">
         <v>45130</v>
       </c>
+      <c r="N113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7204,6 +7545,9 @@
       <c r="M114" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="N114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7263,6 +7607,9 @@
       <c r="M115" s="2" t="n">
         <v>45458</v>
       </c>
+      <c r="N115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7322,6 +7669,9 @@
       <c r="M116" s="2" t="n">
         <v>45127</v>
       </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7381,6 +7731,9 @@
       <c r="M117" s="2" t="n">
         <v>45447</v>
       </c>
+      <c r="N117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7440,6 +7793,9 @@
       <c r="M118" s="2" t="n">
         <v>45499</v>
       </c>
+      <c r="N118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7499,6 +7855,9 @@
       <c r="M119" s="2" t="n">
         <v>45153</v>
       </c>
+      <c r="N119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7558,6 +7917,9 @@
       <c r="M120" s="2" t="n">
         <v>45290</v>
       </c>
+      <c r="N120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7617,6 +7979,9 @@
       <c r="M121" s="2" t="n">
         <v>45190</v>
       </c>
+      <c r="N121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7674,6 +8039,9 @@
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
+      <c r="N122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7733,6 +8101,9 @@
       <c r="M123" s="2" t="n">
         <v>45539</v>
       </c>
+      <c r="N123" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7794,6 +8165,9 @@
       <c r="M124" s="2" t="n">
         <v>45517</v>
       </c>
+      <c r="N124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7853,6 +8227,9 @@
       <c r="M125" s="2" t="n">
         <v>45407</v>
       </c>
+      <c r="N125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7912,6 +8289,9 @@
       <c r="M126" s="2" t="n">
         <v>45465</v>
       </c>
+      <c r="N126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7971,6 +8351,9 @@
       <c r="M127" s="2" t="n">
         <v>45366</v>
       </c>
+      <c r="N127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8030,6 +8413,9 @@
       <c r="M128" s="2" t="n">
         <v>45434</v>
       </c>
+      <c r="N128" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8089,6 +8475,9 @@
       <c r="M129" s="2" t="n">
         <v>45130</v>
       </c>
+      <c r="N129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8148,6 +8537,9 @@
       <c r="M130" s="2" t="n">
         <v>45475</v>
       </c>
+      <c r="N130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8207,6 +8599,9 @@
       <c r="M131" s="2" t="n">
         <v>45402</v>
       </c>
+      <c r="N131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8266,6 +8661,9 @@
       <c r="M132" s="2" t="n">
         <v>45262</v>
       </c>
+      <c r="N132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8325,6 +8723,9 @@
       <c r="M133" s="2" t="n">
         <v>45404</v>
       </c>
+      <c r="N133" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8384,6 +8785,9 @@
       <c r="M134" s="2" t="n">
         <v>45423</v>
       </c>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8443,6 +8847,9 @@
       <c r="M135" s="2" t="n">
         <v>45388</v>
       </c>
+      <c r="N135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8502,6 +8909,9 @@
       <c r="M136" s="2" t="n">
         <v>45129</v>
       </c>
+      <c r="N136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8561,6 +8971,9 @@
       <c r="M137" s="2" t="n">
         <v>45167</v>
       </c>
+      <c r="N137" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8620,6 +9033,9 @@
       <c r="M138" s="2" t="n">
         <v>45463</v>
       </c>
+      <c r="N138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8679,6 +9095,9 @@
       <c r="M139" s="2" t="n">
         <v>45411</v>
       </c>
+      <c r="N139" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8738,6 +9157,9 @@
       <c r="M140" s="2" t="n">
         <v>45199</v>
       </c>
+      <c r="N140" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8797,6 +9219,9 @@
       <c r="M141" s="2" t="n">
         <v>45456</v>
       </c>
+      <c r="N141" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8856,6 +9281,9 @@
       <c r="M142" s="2" t="n">
         <v>45145</v>
       </c>
+      <c r="N142" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8915,6 +9343,9 @@
       <c r="M143" s="2" t="n">
         <v>45395</v>
       </c>
+      <c r="N143" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8974,6 +9405,9 @@
       <c r="M144" s="2" t="n">
         <v>45167</v>
       </c>
+      <c r="N144" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9033,6 +9467,9 @@
       <c r="M145" s="2" t="n">
         <v>45306</v>
       </c>
+      <c r="N145" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9092,6 +9529,9 @@
       <c r="M146" s="2" t="n">
         <v>45129</v>
       </c>
+      <c r="N146" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9151,6 +9591,9 @@
       <c r="M147" s="2" t="n">
         <v>45386</v>
       </c>
+      <c r="N147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9210,6 +9653,9 @@
       <c r="M148" s="2" t="n">
         <v>45538</v>
       </c>
+      <c r="N148" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9269,6 +9715,9 @@
       <c r="M149" s="2" t="n">
         <v>45474</v>
       </c>
+      <c r="N149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9328,6 +9777,9 @@
       <c r="M150" s="2" t="n">
         <v>45517</v>
       </c>
+      <c r="N150" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9387,6 +9839,9 @@
       <c r="M151" s="2" t="n">
         <v>45507</v>
       </c>
+      <c r="N151" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9446,6 +9901,9 @@
       <c r="M152" s="2" t="n">
         <v>45506</v>
       </c>
+      <c r="N152" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9505,6 +9963,9 @@
       <c r="M153" s="2" t="n">
         <v>45413</v>
       </c>
+      <c r="N153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9564,6 +10025,9 @@
       <c r="M154" s="2" t="n">
         <v>45442</v>
       </c>
+      <c r="N154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9625,6 +10089,9 @@
       <c r="M155" s="2" t="n">
         <v>45563</v>
       </c>
+      <c r="N155" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9684,6 +10151,9 @@
       <c r="M156" s="2" t="n">
         <v>45413</v>
       </c>
+      <c r="N156" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9745,6 +10215,9 @@
       <c r="M157" s="2" t="n">
         <v>45458</v>
       </c>
+      <c r="N157" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9804,6 +10277,9 @@
       <c r="M158" s="2" t="n">
         <v>45526</v>
       </c>
+      <c r="N158" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9863,6 +10339,9 @@
       <c r="M159" s="2" t="n">
         <v>45459</v>
       </c>
+      <c r="N159" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9922,6 +10401,9 @@
       <c r="M160" s="2" t="n">
         <v>45413</v>
       </c>
+      <c r="N160" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9983,6 +10465,9 @@
       <c r="M161" s="2" t="n">
         <v>45539</v>
       </c>
+      <c r="N161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10044,6 +10529,9 @@
       <c r="M162" s="2" t="n">
         <v>45549</v>
       </c>
+      <c r="N162" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10103,6 +10591,9 @@
       <c r="M163" s="2" t="n">
         <v>45459</v>
       </c>
+      <c r="N163" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10164,6 +10655,9 @@
       <c r="M164" s="2" t="n">
         <v>45550</v>
       </c>
+      <c r="N164" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10223,6 +10717,9 @@
       <c r="M165" s="2" t="n">
         <v>45413</v>
       </c>
+      <c r="N165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10282,6 +10779,9 @@
       <c r="M166" s="2" t="n">
         <v>45496</v>
       </c>
+      <c r="N166" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10345,6 +10845,9 @@
       <c r="M167" s="2" t="n">
         <v>45548</v>
       </c>
+      <c r="N167" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10404,6 +10907,9 @@
       <c r="M168" s="2" t="n">
         <v>45131</v>
       </c>
+      <c r="N168" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10465,6 +10971,9 @@
       <c r="M169" s="2" t="n">
         <v>44925</v>
       </c>
+      <c r="N169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10524,6 +11033,9 @@
       <c r="M170" s="2" t="n">
         <v>44961</v>
       </c>
+      <c r="N170" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10585,6 +11097,9 @@
       <c r="M171" s="2" t="n">
         <v>45289</v>
       </c>
+      <c r="N171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10646,6 +11161,9 @@
       <c r="M172" s="2" t="n">
         <v>44916</v>
       </c>
+      <c r="N172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10705,6 +11223,9 @@
       <c r="M173" s="2" t="n">
         <v>45343</v>
       </c>
+      <c r="N173" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10764,6 +11285,9 @@
       <c r="M174" s="2" t="n">
         <v>45412</v>
       </c>
+      <c r="N174" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10825,6 +11349,9 @@
       <c r="M175" s="2" t="n">
         <v>45374</v>
       </c>
+      <c r="N175" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10884,6 +11411,9 @@
       <c r="M176" s="2" t="n">
         <v>45385</v>
       </c>
+      <c r="N176" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10943,6 +11473,9 @@
       <c r="M177" s="2" t="n">
         <v>45267</v>
       </c>
+      <c r="N177" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11002,6 +11535,9 @@
       <c r="M178" s="2" t="n">
         <v>45505</v>
       </c>
+      <c r="N178" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11061,6 +11597,9 @@
       <c r="M179" s="2" t="n">
         <v>45296</v>
       </c>
+      <c r="N179" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11120,6 +11659,9 @@
       <c r="M180" s="2" t="n">
         <v>45419</v>
       </c>
+      <c r="N180" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11179,6 +11721,9 @@
       <c r="M181" s="2" t="n">
         <v>45384</v>
       </c>
+      <c r="N181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11238,6 +11783,9 @@
       <c r="M182" s="2" t="n">
         <v>45274</v>
       </c>
+      <c r="N182" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11301,6 +11849,9 @@
       <c r="M183" s="2" t="n">
         <v>45377</v>
       </c>
+      <c r="N183" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11360,6 +11911,9 @@
       <c r="M184" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="N184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11419,6 +11973,9 @@
       <c r="M185" s="2" t="n">
         <v>45386</v>
       </c>
+      <c r="N185" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11478,6 +12035,9 @@
       <c r="M186" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="N186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11537,6 +12097,9 @@
       <c r="M187" s="2" t="n">
         <v>45408</v>
       </c>
+      <c r="N187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11596,6 +12159,9 @@
       <c r="M188" s="2" t="n">
         <v>45427</v>
       </c>
+      <c r="N188" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11655,6 +12221,9 @@
       <c r="M189" s="2" t="n">
         <v>45625</v>
       </c>
+      <c r="N189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11714,6 +12283,9 @@
       <c r="M190" s="2" t="n">
         <v>45486</v>
       </c>
+      <c r="N190" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11775,6 +12347,9 @@
       <c r="M191" s="2" t="n">
         <v>44643</v>
       </c>
+      <c r="N191" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11834,6 +12409,9 @@
       <c r="M192" s="2" t="n">
         <v>45479</v>
       </c>
+      <c r="N192" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11895,6 +12473,9 @@
       <c r="M193" s="2" t="n">
         <v>45506</v>
       </c>
+      <c r="N193" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11956,6 +12537,9 @@
       <c r="M194" s="2" t="n">
         <v>45174</v>
       </c>
+      <c r="N194" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12017,6 +12601,9 @@
       <c r="M195" s="2" t="n">
         <v>45729</v>
       </c>
+      <c r="N195" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12076,6 +12663,9 @@
       <c r="M196" s="2" t="n">
         <v>45695</v>
       </c>
+      <c r="N196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12137,6 +12727,9 @@
       <c r="M197" s="2" t="n">
         <v>45530</v>
       </c>
+      <c r="N197" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12196,6 +12789,9 @@
       <c r="M198" s="2" t="n">
         <v>45718</v>
       </c>
+      <c r="N198" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12257,6 +12853,9 @@
       <c r="M199" s="2" t="n">
         <v>45497</v>
       </c>
+      <c r="N199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12316,6 +12915,9 @@
       <c r="M200" s="2" t="n">
         <v>45485</v>
       </c>
+      <c r="N200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12375,6 +12977,9 @@
       <c r="M201" s="2" t="n">
         <v>45077</v>
       </c>
+      <c r="N201" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12436,6 +13041,9 @@
       <c r="M202" s="2" t="n">
         <v>45194</v>
       </c>
+      <c r="N202" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12495,6 +13103,9 @@
       <c r="M203" s="2" t="n">
         <v>45413</v>
       </c>
+      <c r="N203" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12554,6 +13165,9 @@
       <c r="M204" s="2" t="n">
         <v>45512</v>
       </c>
+      <c r="N204" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12613,6 +13227,9 @@
       <c r="M205" s="2" t="n">
         <v>45007</v>
       </c>
+      <c r="N205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12672,6 +13289,9 @@
       <c r="M206" s="2" t="n">
         <v>44971</v>
       </c>
+      <c r="N206" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12733,6 +13353,9 @@
       <c r="M207" s="2" t="n">
         <v>44971</v>
       </c>
+      <c r="N207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12794,6 +13417,9 @@
       <c r="M208" s="2" t="n">
         <v>44977</v>
       </c>
+      <c r="N208" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12855,6 +13481,9 @@
       <c r="M209" s="2" t="n">
         <v>44980</v>
       </c>
+      <c r="N209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12916,6 +13545,9 @@
       <c r="M210" s="2" t="n">
         <v>45197</v>
       </c>
+      <c r="N210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12977,6 +13609,9 @@
       <c r="M211" s="2" t="n">
         <v>45472</v>
       </c>
+      <c r="N211" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13038,6 +13673,9 @@
       <c r="M212" s="2" t="n">
         <v>44971</v>
       </c>
+      <c r="N212" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13099,6 +13737,9 @@
       <c r="M213" s="2" t="n">
         <v>45441</v>
       </c>
+      <c r="N213" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13160,6 +13801,9 @@
       <c r="M214" s="2" t="n">
         <v>45376</v>
       </c>
+      <c r="N214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13219,6 +13863,9 @@
       <c r="M215" s="2" t="n">
         <v>45130</v>
       </c>
+      <c r="N215" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13280,6 +13927,9 @@
       <c r="M216" s="2" t="n">
         <v>45044</v>
       </c>
+      <c r="N216" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13341,6 +13991,9 @@
       <c r="M217" s="2" t="n">
         <v>45374</v>
       </c>
+      <c r="N217" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13402,6 +14055,9 @@
       <c r="M218" s="2" t="n">
         <v>44899</v>
       </c>
+      <c r="N218" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13463,6 +14119,9 @@
       <c r="M219" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="N219" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13522,6 +14181,9 @@
       <c r="M220" s="2" t="n">
         <v>45547</v>
       </c>
+      <c r="N220" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13581,6 +14243,9 @@
       <c r="M221" s="2" t="n">
         <v>45560</v>
       </c>
+      <c r="N221" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13640,6 +14305,9 @@
       <c r="M222" s="2" t="n">
         <v>45553</v>
       </c>
+      <c r="N222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13699,6 +14367,9 @@
       <c r="M223" s="2" t="n">
         <v>45595</v>
       </c>
+      <c r="N223" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13758,6 +14429,9 @@
       <c r="M224" s="2" t="n">
         <v>45609</v>
       </c>
+      <c r="N224" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13817,6 +14491,9 @@
       <c r="M225" s="2" t="n">
         <v>45628</v>
       </c>
+      <c r="N225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13878,6 +14555,9 @@
       <c r="M226" s="2" t="n">
         <v>45622</v>
       </c>
+      <c r="N226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13937,6 +14617,9 @@
       <c r="M227" s="2" t="n">
         <v>45635</v>
       </c>
+      <c r="N227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13996,6 +14679,9 @@
       <c r="M228" s="2" t="n">
         <v>45632</v>
       </c>
+      <c r="N228" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14055,6 +14741,9 @@
       <c r="M229" s="2" t="n">
         <v>45650</v>
       </c>
+      <c r="N229" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14114,6 +14803,9 @@
       <c r="M230" s="2" t="n">
         <v>45663</v>
       </c>
+      <c r="N230" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14173,6 +14865,9 @@
       <c r="M231" s="2" t="n">
         <v>45670</v>
       </c>
+      <c r="N231" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14232,6 +14927,9 @@
       <c r="M232" s="2" t="n">
         <v>45644</v>
       </c>
+      <c r="N232" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14291,6 +14989,9 @@
       <c r="M233" s="2" t="n">
         <v>45656</v>
       </c>
+      <c r="N233" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14350,6 +15051,9 @@
       <c r="M234" s="2" t="n">
         <v>45670</v>
       </c>
+      <c r="N234" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14409,6 +15113,9 @@
       <c r="M235" s="2" t="n">
         <v>45668</v>
       </c>
+      <c r="N235" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14468,6 +15175,9 @@
       <c r="M236" s="2" t="n">
         <v>45663</v>
       </c>
+      <c r="N236" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14529,6 +15239,9 @@
       <c r="M237" s="2" t="n">
         <v>45667</v>
       </c>
+      <c r="N237" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14588,6 +15301,9 @@
       <c r="M238" s="2" t="n">
         <v>45666</v>
       </c>
+      <c r="N238" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14647,6 +15363,9 @@
       <c r="M239" s="2" t="n">
         <v>45689</v>
       </c>
+      <c r="N239" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14706,6 +15425,9 @@
       <c r="M240" s="2" t="n">
         <v>45658</v>
       </c>
+      <c r="N240" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14765,6 +15487,9 @@
       <c r="M241" s="2" t="n">
         <v>45684</v>
       </c>
+      <c r="N241" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14826,6 +15551,9 @@
       <c r="M242" s="2" t="n">
         <v>45694</v>
       </c>
+      <c r="N242" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14885,6 +15613,9 @@
       <c r="M243" s="2" t="n">
         <v>45685</v>
       </c>
+      <c r="N243" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14944,6 +15675,9 @@
       <c r="M244" s="2" t="n">
         <v>45680</v>
       </c>
+      <c r="N244" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -15003,6 +15737,9 @@
       <c r="M245" s="2" t="n">
         <v>45682</v>
       </c>
+      <c r="N245" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15062,6 +15799,9 @@
       <c r="M246" s="2" t="n">
         <v>45713</v>
       </c>
+      <c r="N246" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15121,6 +15861,9 @@
       <c r="M247" s="2" t="n">
         <v>45658</v>
       </c>
+      <c r="N247" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15180,6 +15923,9 @@
       <c r="M248" s="2" t="n">
         <v>45708</v>
       </c>
+      <c r="N248" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15241,6 +15987,9 @@
       <c r="M249" s="2" t="n">
         <v>45717</v>
       </c>
+      <c r="N249" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15300,6 +16049,9 @@
       <c r="M250" s="2" t="n">
         <v>45727</v>
       </c>
+      <c r="N250" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15359,6 +16111,9 @@
       <c r="M251" s="2" t="n">
         <v>45722</v>
       </c>
+      <c r="N251" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15418,6 +16173,9 @@
       <c r="M252" s="2" t="n">
         <v>45748</v>
       </c>
+      <c r="N252" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15479,6 +16237,9 @@
       <c r="M253" s="2" t="n">
         <v>45720</v>
       </c>
+      <c r="N253" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15538,6 +16299,9 @@
       <c r="M254" s="2" t="n">
         <v>45727</v>
       </c>
+      <c r="N254" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15599,6 +16363,9 @@
       <c r="M255" s="2" t="n">
         <v>45726</v>
       </c>
+      <c r="N255" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15658,6 +16425,9 @@
       <c r="M256" s="2" t="n">
         <v>45729</v>
       </c>
+      <c r="N256" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15719,6 +16489,9 @@
       <c r="M257" s="2" t="n">
         <v>45735</v>
       </c>
+      <c r="N257" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15778,6 +16551,9 @@
       <c r="M258" s="2" t="n">
         <v>45745</v>
       </c>
+      <c r="N258" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15839,6 +16615,9 @@
       <c r="M259" s="2" t="n">
         <v>45737</v>
       </c>
+      <c r="N259" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15900,6 +16679,9 @@
       <c r="M260" s="2" t="n">
         <v>45737</v>
       </c>
+      <c r="N260" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15958,6 +16740,9 @@
       </c>
       <c r="M261" s="2" t="n">
         <v>45742</v>
+      </c>
+      <c r="N261" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
